--- a/ClosedXML_Tests/Resource/Examples/Misc/RightToLeft.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/RightToLeft.xlsx
@@ -85,7 +85,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -368,7 +368,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
